--- a/docs/design-folder/dsa-project-design-checklist.xlsx
+++ b/docs/design-folder/dsa-project-design-checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F4478-1D9B-48CA-B0A1-3347FCF5385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F029C90E-8AF3-45A3-B925-9928E4091774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t xml:space="preserve">SI. No. </t>
   </si>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">This has many effects on railways as for instance consider if we increase no. of seats in trains then space consumption will be more and train becomes slow </t>
   </si>
   <si>
-    <t>testing</t>
+    <t>In the usage of Dijkstra's Algorithm which we have implemented in our module does follow this principle</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,10 +1064,10 @@
         <v>47</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1160,9 +1160,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
